--- a/biology/Botanique/Sosthène_Duclaux/Sosthène_Duclaux.xlsx
+++ b/biology/Botanique/Sosthène_Duclaux/Sosthène_Duclaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sosth%C3%A8ne_Duclaux</t>
+          <t>Sosthène_Duclaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Sosthène-Edmond Duclaux, ou encore Sosthène Duclaux (né le 20 avril 1791 à Château-Gontier[1] et mort le 3 novembre 1856) est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Sosthène-Edmond Duclaux, ou encore Sosthène Duclaux (né le 20 avril 1791 à Château-Gontier et mort le 3 novembre 1856) est un botaniste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sosth%C3%A8ne_Duclaux</t>
+          <t>Sosthène_Duclaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Jean-Laurent Duclaux, marchand orfèvre à Château-Gontier en 1790[2] et de Victoire Aimée Perrotin. Substitut du procureur royal près du tribunal de Chateau-Gontier, il a suivi pendant une quarantaine d'années des recherches botaniques. Il a mené ses études avec une science et une conscience qui le firent unanimement apprécier par les botanistes[3]. Il herborise à Thouars en 1823.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Jean-Laurent Duclaux, marchand orfèvre à Château-Gontier en 1790 et de Victoire Aimée Perrotin. Substitut du procureur royal près du tribunal de Chateau-Gontier, il a suivi pendant une quarantaine d'années des recherches botaniques. Il a mené ses études avec une science et une conscience qui le firent unanimement apprécier par les botanistes. Il herborise à Thouars en 1823.
 Il est l'un des auteurs du Catalogue des plantes vasculaires de la Mayenne. Juge au Tribunal de Laval, il a visité le nord de l'Anjou, et a adressé fréquemment ses récoltes aussi rares à Jean-Pierre Guépin, auteur de la Flore de Maine-et-Loire.
 Il a collaboré, avec MM. Eugène Boullier et Hippolyte Le Tissier (bibliothécaire de Laval), au Catalogue des plantes qui croissent spontanément dans le département de la Mayenne (Laval, 1838, in-12), réédité la même année en format in-8 
 Il a légué à sa mort au Musée des Sciences de Laval l'herbier de Jean-Baptiste Mougeot et C. Nestler sur les plantes cryptogames des Vosges rhénanes et l'herbier de F.G. Kneiff et W. Maercker sur les mousses.
